--- a/Code/Results/Cases/Case_4_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.515830220050077</v>
+        <v>0.8322162453630995</v>
       </c>
       <c r="C2">
-        <v>0.9431434102089611</v>
+        <v>0.283447714744625</v>
       </c>
       <c r="D2">
-        <v>0.2064762969054215</v>
+        <v>0.07891491415117002</v>
       </c>
       <c r="E2">
-        <v>0.1811183706592914</v>
+        <v>0.09666655582798711</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.531434204086395</v>
+        <v>0.9509109816039825</v>
       </c>
       <c r="H2">
-        <v>0.8445901838210546</v>
+        <v>0.8875359085953392</v>
       </c>
       <c r="I2">
-        <v>0.6891202174704958</v>
+        <v>0.6726832726202687</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.041296711699076</v>
+        <v>0.3740316256657437</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.176254564579665</v>
+        <v>0.7367777205278117</v>
       </c>
       <c r="C3">
-        <v>0.8148346767397925</v>
+        <v>0.2473495584821421</v>
       </c>
       <c r="D3">
-        <v>0.1780821532619967</v>
+        <v>0.07150616303459856</v>
       </c>
       <c r="E3">
-        <v>0.1577321326533578</v>
+        <v>0.09140658319989825</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.353697574917135</v>
+        <v>0.9125796724722477</v>
       </c>
       <c r="H3">
-        <v>0.77040851922456</v>
+        <v>0.8759039180849584</v>
       </c>
       <c r="I3">
-        <v>0.6338133145867033</v>
+        <v>0.664337401815402</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8969933271006099</v>
+        <v>0.3357718321900478</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969714084039225</v>
+        <v>0.6783278838970546</v>
       </c>
       <c r="C4">
-        <v>0.7370096525163206</v>
+        <v>0.2251976797865041</v>
       </c>
       <c r="D4">
-        <v>0.1609563685814948</v>
+        <v>0.06699813706057967</v>
       </c>
       <c r="E4">
-        <v>0.143841914033473</v>
+        <v>0.0882547871705377</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.248723773618366</v>
+        <v>0.8898506950751823</v>
       </c>
       <c r="H4">
-        <v>0.7270682766470316</v>
+        <v>0.869375389207562</v>
       </c>
       <c r="I4">
-        <v>0.6019410560577541</v>
+        <v>0.6597338485623325</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8097765735811606</v>
+        <v>0.3124341468380578</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.885949317711038</v>
+        <v>0.6545465186071908</v>
       </c>
       <c r="C5">
-        <v>0.7054930781119708</v>
+        <v>0.2161732952422994</v>
       </c>
       <c r="D5">
-        <v>0.1540442660335373</v>
+        <v>0.06517122820055476</v>
       </c>
       <c r="E5">
-        <v>0.1382849028494633</v>
+        <v>0.08698967664106405</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.20687667619714</v>
+        <v>0.8807889754599501</v>
       </c>
       <c r="H5">
-        <v>0.7099083391585737</v>
+        <v>0.8668683050122468</v>
       </c>
       <c r="I5">
-        <v>0.5894278515543476</v>
+        <v>0.6579878026193384</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7745303746636196</v>
+        <v>0.3029619093792988</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.872062028540427</v>
+        <v>0.6505998943505062</v>
       </c>
       <c r="C6">
-        <v>0.70027053719582</v>
+        <v>0.2146749519035041</v>
       </c>
       <c r="D6">
-        <v>0.1529002538653259</v>
+        <v>0.06486847979728338</v>
       </c>
       <c r="E6">
-        <v>0.1373680071245609</v>
+        <v>0.08678076114250288</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.199981030005176</v>
+        <v>0.8792963277452657</v>
       </c>
       <c r="H6">
-        <v>0.7070877578859722</v>
+        <v>0.8664612398067106</v>
       </c>
       <c r="I6">
-        <v>0.5873773594592748</v>
+        <v>0.6577056909213752</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7686941411452395</v>
+        <v>0.3013913311597989</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968582888981757</v>
+        <v>0.6780070088923367</v>
       </c>
       <c r="C7">
-        <v>0.7365838621879277</v>
+        <v>0.2250759635089139</v>
       </c>
       <c r="D7">
-        <v>0.1608628926453122</v>
+        <v>0.06697345784145625</v>
       </c>
       <c r="E7">
-        <v>0.1437665700215582</v>
+        <v>0.08823764781488919</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.248155785789891</v>
+        <v>0.8897276766913365</v>
       </c>
       <c r="H7">
-        <v>0.7268348883950466</v>
+        <v>0.86934095816423</v>
       </c>
       <c r="I7">
-        <v>0.6017704379357838</v>
+        <v>0.6597097760293096</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8093001021209929</v>
+        <v>0.3123062476934706</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.398280345588603</v>
+        <v>0.7992777598744283</v>
       </c>
       <c r="C8">
-        <v>0.8986768193877026</v>
+        <v>0.2709981745272501</v>
       </c>
       <c r="D8">
-        <v>0.1966152395609981</v>
+        <v>0.0763517754931371</v>
       </c>
       <c r="E8">
-        <v>0.1729482440136607</v>
+        <v>0.09483657477851892</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.469215501302557</v>
+        <v>0.937525534516169</v>
       </c>
       <c r="H8">
-        <v>0.8185204307579568</v>
+        <v>0.8833972807814234</v>
       </c>
       <c r="I8">
-        <v>0.6695861211923173</v>
+        <v>0.6696968894991286</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.991219626694317</v>
+        <v>0.3608072765829817</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.2610632627472</v>
+        <v>1.038303153122229</v>
       </c>
       <c r="C9">
-        <v>1.226306699560325</v>
+        <v>0.3611767906941168</v>
       </c>
       <c r="D9">
-        <v>0.269711205155545</v>
+        <v>0.09507579579374692</v>
       </c>
       <c r="E9">
-        <v>0.2346319027418033</v>
+        <v>0.1084092019609599</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.941459655385103</v>
+        <v>1.03776656085202</v>
       </c>
       <c r="H9">
-        <v>1.018519980153485</v>
+        <v>0.9158750345332578</v>
       </c>
       <c r="I9">
-        <v>0.8216141316274701</v>
+        <v>0.693462552073143</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.361650759136836</v>
+        <v>0.4571746224770976</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.914494749153505</v>
+        <v>1.214709963447433</v>
       </c>
       <c r="C10">
-        <v>1.476413049199493</v>
+        <v>0.4275501252002982</v>
       </c>
       <c r="D10">
-        <v>0.3260819382045952</v>
+        <v>0.1090480186368978</v>
       </c>
       <c r="E10">
-        <v>0.2838380476736262</v>
+        <v>0.1187875089191266</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.321098926568993</v>
+        <v>1.115541907408584</v>
       </c>
       <c r="H10">
-        <v>1.182005009893857</v>
+        <v>0.9427978532500845</v>
       </c>
       <c r="I10">
-        <v>0.9488220792963631</v>
+        <v>0.7135414319435966</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.646406722055872</v>
+        <v>0.5287984694164578</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.217893957657566</v>
+        <v>1.295148138574916</v>
       </c>
       <c r="C11">
-        <v>1.593135980493287</v>
+        <v>0.4577807403847487</v>
       </c>
       <c r="D11">
-        <v>0.3525251871153898</v>
+        <v>0.1154540042637109</v>
       </c>
       <c r="E11">
-        <v>0.3073756017618337</v>
+        <v>0.1236017976820136</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.503265031893108</v>
+        <v>1.151855455529073</v>
       </c>
       <c r="H11">
-        <v>1.261073844222921</v>
+        <v>0.955725084269659</v>
       </c>
       <c r="I11">
-        <v>1.011077529968446</v>
+        <v>0.7232595449898866</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.779800106310304</v>
+        <v>0.5615735099464985</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.333850861617236</v>
+        <v>1.325636027449832</v>
       </c>
       <c r="C12">
-        <v>1.637847938973493</v>
+        <v>0.4692342873635766</v>
       </c>
       <c r="D12">
-        <v>0.3626748234708828</v>
+        <v>0.1178871689917003</v>
       </c>
       <c r="E12">
-        <v>0.3164848774189792</v>
+        <v>0.1254385993121758</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.573838056117239</v>
+        <v>1.165743339298928</v>
       </c>
       <c r="H12">
-        <v>1.291798341189178</v>
+        <v>0.9607191846277487</v>
       </c>
       <c r="I12">
-        <v>1.035382142877324</v>
+        <v>0.7270247294713386</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.830975967755876</v>
+        <v>0.5740132236234814</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.308826874382873</v>
+        <v>1.3190686764612</v>
       </c>
       <c r="C13">
-        <v>1.628194136064167</v>
+        <v>0.466767291297856</v>
       </c>
       <c r="D13">
-        <v>0.3604824942331675</v>
+        <v>0.1173628134311997</v>
       </c>
       <c r="E13">
-        <v>0.3145137783252068</v>
+        <v>0.1250423948814401</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.558564138143936</v>
+        <v>1.162746213150228</v>
       </c>
       <c r="H13">
-        <v>1.285144580796981</v>
+        <v>0.9596392027553975</v>
       </c>
       <c r="I13">
-        <v>1.030113524012179</v>
+        <v>0.7262100243572718</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.81992296513647</v>
+        <v>0.5713328280449161</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.227411299965979</v>
+        <v>1.29765583801742</v>
       </c>
       <c r="C14">
-        <v>1.59680366126355</v>
+        <v>0.4587229098121384</v>
       </c>
       <c r="D14">
-        <v>0.3533573436303925</v>
+        <v>0.1156540337389629</v>
       </c>
       <c r="E14">
-        <v>0.3081209072162849</v>
+        <v>0.1237526352219689</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.509037805735915</v>
+        <v>1.152995265140675</v>
       </c>
       <c r="H14">
-        <v>1.263585208712669</v>
+        <v>0.9561339648821274</v>
       </c>
       <c r="I14">
-        <v>1.013061841655755</v>
+        <v>0.7235675959237113</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.783996418315112</v>
+        <v>0.5625963567103724</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.17768659611221</v>
+        <v>1.284543475740804</v>
       </c>
       <c r="C15">
-        <v>1.577645520501164</v>
+        <v>0.4537962745063169</v>
       </c>
       <c r="D15">
-        <v>0.3490113910015822</v>
+        <v>0.1146083201458623</v>
       </c>
       <c r="E15">
-        <v>0.3042316049324612</v>
+        <v>0.122964419070378</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.478916018786151</v>
+        <v>1.147040410237736</v>
       </c>
       <c r="H15">
-        <v>1.25048486322504</v>
+        <v>0.9539998090625375</v>
       </c>
       <c r="I15">
-        <v>1.002715412338006</v>
+        <v>0.7219601549549139</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.762080149282113</v>
+        <v>0.5572487525179213</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.894805626245557</v>
+        <v>1.209456992806963</v>
       </c>
       <c r="C16">
-        <v>1.468851459249777</v>
+        <v>0.425575274916639</v>
       </c>
       <c r="D16">
-        <v>0.3243716469617652</v>
+        <v>0.1086303923825369</v>
       </c>
       <c r="E16">
-        <v>0.2823255078248366</v>
+        <v>0.1184747871859102</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.309403313935775</v>
+        <v>1.113187726165705</v>
       </c>
       <c r="H16">
-        <v>1.176941046754052</v>
+        <v>0.9419668008850692</v>
       </c>
       <c r="I16">
-        <v>0.944849972958508</v>
+        <v>0.71291818261858</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.637775646586036</v>
+        <v>0.5266604919701052</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.722964124360033</v>
+        <v>1.163442761324688</v>
       </c>
       <c r="C17">
-        <v>1.402923402953945</v>
+        <v>0.4082724762393468</v>
       </c>
       <c r="D17">
-        <v>0.3094749890597797</v>
+        <v>0.1049760441353413</v>
       </c>
       <c r="E17">
-        <v>0.2692023981660441</v>
+        <v>0.1157446413582832</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.207990672168989</v>
+        <v>1.092661008481798</v>
       </c>
       <c r="H17">
-        <v>1.13309938217796</v>
+        <v>0.9347598376499775</v>
       </c>
       <c r="I17">
-        <v>0.9105413466082553</v>
+        <v>0.7075216501488626</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.562578790573681</v>
+        <v>0.5079455541640812</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.624692035505461</v>
+        <v>1.136994434124688</v>
       </c>
       <c r="C18">
-        <v>1.3652749107452</v>
+        <v>0.3983238184047764</v>
       </c>
       <c r="D18">
-        <v>0.3009806959949657</v>
+        <v>0.102878850779291</v>
       </c>
       <c r="E18">
-        <v>0.2617608444662025</v>
+        <v>0.1141830803094592</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.150536326738489</v>
+        <v>1.080942262848509</v>
       </c>
       <c r="H18">
-        <v>1.108317841025695</v>
+        <v>0.930678514466365</v>
       </c>
       <c r="I18">
-        <v>0.8912142740923628</v>
+        <v>0.7044726193565225</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.519683222452457</v>
+        <v>0.4971993356228523</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.591510969323792</v>
+        <v>1.128042537722479</v>
       </c>
       <c r="C19">
-        <v>1.352571955057158</v>
+        <v>0.3949559508386642</v>
       </c>
       <c r="D19">
-        <v>0.2981167638466218</v>
+        <v>0.102169577582444</v>
       </c>
       <c r="E19">
-        <v>0.259258705502333</v>
+        <v>0.1136558544894015</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.131227167527982</v>
+        <v>1.076989478731434</v>
       </c>
       <c r="H19">
-        <v>1.09999892735209</v>
+        <v>0.9293075964362458</v>
       </c>
       <c r="I19">
-        <v>0.8847374574505693</v>
+        <v>0.7034496662119025</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.505217559316648</v>
+        <v>0.4935639395381912</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.741197067210237</v>
+        <v>1.168339205485154</v>
       </c>
       <c r="C20">
-        <v>1.409912854866434</v>
+        <v>0.4101140273125452</v>
       </c>
       <c r="D20">
-        <v>0.311052974472517</v>
+        <v>0.1053645689795388</v>
       </c>
       <c r="E20">
-        <v>0.2705881470729281</v>
+        <v>0.1160343623439601</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.218694047560945</v>
+        <v>1.094837019758188</v>
       </c>
       <c r="H20">
-        <v>1.137720650065432</v>
+        <v>0.9355204068186538</v>
       </c>
       <c r="I20">
-        <v>0.9141508312750801</v>
+        <v>0.7080904287685001</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.570546078921993</v>
+        <v>0.5099359105376635</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.251294513647508</v>
+        <v>1.303944552647067</v>
       </c>
       <c r="C21">
-        <v>1.606009160432507</v>
+        <v>0.4610855759863171</v>
       </c>
       <c r="D21">
-        <v>0.3554462949734187</v>
+        <v>0.1161557426894575</v>
       </c>
       <c r="E21">
-        <v>0.3099930619311735</v>
+        <v>0.1241310933993915</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.523539727074336</v>
+        <v>1.155855623711886</v>
       </c>
       <c r="H21">
-        <v>1.269895541741477</v>
+        <v>0.9571608471944444</v>
       </c>
       <c r="I21">
-        <v>1.018049668704975</v>
+        <v>0.7243414211763195</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.794529990561315</v>
+        <v>0.5651616899913137</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.59099122257004</v>
+        <v>1.392732141102556</v>
       </c>
       <c r="C22">
-        <v>1.737201315135223</v>
+        <v>0.4944329004465544</v>
       </c>
       <c r="D22">
-        <v>0.3852655192957997</v>
+        <v>0.1232513633138126</v>
       </c>
       <c r="E22">
-        <v>0.3369070899051394</v>
+        <v>0.1295029940881207</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.732177116519182</v>
+        <v>1.196532978123599</v>
       </c>
       <c r="H22">
-        <v>1.360903919955291</v>
+        <v>0.9718807359496395</v>
       </c>
       <c r="I22">
-        <v>1.090264127688855</v>
+        <v>0.7354592187850528</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.944841199505944</v>
+        <v>0.6014215159532341</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.409043503757744</v>
+        <v>1.345329601055084</v>
       </c>
       <c r="C23">
-        <v>1.666871768906447</v>
+        <v>0.4766314692486731</v>
       </c>
       <c r="D23">
-        <v>0.3692689494463934</v>
+        <v>0.1194603076067011</v>
       </c>
       <c r="E23">
-        <v>0.3224251259983646</v>
+        <v>0.1266284559023774</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.619878300657831</v>
+        <v>1.174748829922407</v>
       </c>
       <c r="H23">
-        <v>1.311868311487558</v>
+        <v>0.9639713385763571</v>
       </c>
       <c r="I23">
-        <v>1.051291008474792</v>
+        <v>0.7294795989524516</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.864218156291898</v>
+        <v>0.5820534646741038</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.732952341611622</v>
+        <v>1.16612550483427</v>
       </c>
       <c r="C24">
-        <v>1.406752137622561</v>
+        <v>0.4092814653779442</v>
       </c>
       <c r="D24">
-        <v>0.3103393508088033</v>
+        <v>0.1051889052604764</v>
       </c>
       <c r="E24">
-        <v>0.2699613310928086</v>
+        <v>0.1159033544813113</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.213852423593096</v>
+        <v>1.09385298878837</v>
       </c>
       <c r="H24">
-        <v>1.135630063285532</v>
+        <v>0.9351763602876133</v>
       </c>
       <c r="I24">
-        <v>0.912517752689169</v>
+        <v>0.707833117377092</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.566943028924101</v>
+        <v>0.509036029212524</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.024803457997052</v>
+        <v>0.9735049618369658</v>
       </c>
       <c r="C25">
-        <v>1.136298871510746</v>
+        <v>0.3367633050684731</v>
       </c>
       <c r="D25">
-        <v>0.2495356913087505</v>
+        <v>0.08997349261345278</v>
       </c>
       <c r="E25">
-        <v>0.217355822460604</v>
+        <v>0.104667600130945</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.808687270416215</v>
+        <v>1.009935350906687</v>
       </c>
       <c r="H25">
-        <v>0.9618459696237096</v>
+        <v>0.9065561335584107</v>
       </c>
       <c r="I25">
-        <v>0.7780730184361886</v>
+        <v>0.6865785576080725</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.259566187388018</v>
+        <v>0.4309643537454804</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_96/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_96/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8322162453630995</v>
+        <v>2.515830220049963</v>
       </c>
       <c r="C2">
-        <v>0.283447714744625</v>
+        <v>0.9431434102090748</v>
       </c>
       <c r="D2">
-        <v>0.07891491415117002</v>
+        <v>0.2064762969055067</v>
       </c>
       <c r="E2">
-        <v>0.09666655582798711</v>
+        <v>0.1811183706592985</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.9509109816039825</v>
+        <v>1.531434204086423</v>
       </c>
       <c r="H2">
-        <v>0.8875359085953392</v>
+        <v>0.8445901838210546</v>
       </c>
       <c r="I2">
-        <v>0.6726832726202687</v>
+        <v>0.6891202174705029</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3740316256657437</v>
+        <v>1.041296711699061</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7367777205278117</v>
+        <v>2.176254564579722</v>
       </c>
       <c r="C3">
-        <v>0.2473495584821421</v>
+        <v>0.8148346767398493</v>
       </c>
       <c r="D3">
-        <v>0.07150616303459856</v>
+        <v>0.178082153261883</v>
       </c>
       <c r="E3">
-        <v>0.09140658319989825</v>
+        <v>0.1577321326532939</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.9125796724722477</v>
+        <v>1.353697574917106</v>
       </c>
       <c r="H3">
-        <v>0.8759039180849584</v>
+        <v>0.7704085192246453</v>
       </c>
       <c r="I3">
-        <v>0.664337401815402</v>
+        <v>0.6338133145867246</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3357718321900478</v>
+        <v>0.8969933271005743</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6783278838970546</v>
+        <v>1.969714084039339</v>
       </c>
       <c r="C4">
-        <v>0.2251976797865041</v>
+        <v>0.7370096525165764</v>
       </c>
       <c r="D4">
-        <v>0.06699813706057967</v>
+        <v>0.1609563685814805</v>
       </c>
       <c r="E4">
-        <v>0.0882547871705377</v>
+        <v>0.1438419140334588</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.8898506950751823</v>
+        <v>1.248723773618366</v>
       </c>
       <c r="H4">
-        <v>0.869375389207562</v>
+        <v>0.7270682766471452</v>
       </c>
       <c r="I4">
-        <v>0.6597338485623325</v>
+        <v>0.6019410560577185</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3124341468380578</v>
+        <v>0.8097765735811606</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6545465186071908</v>
+        <v>1.885949317711095</v>
       </c>
       <c r="C5">
-        <v>0.2161732952422994</v>
+        <v>0.7054930781118856</v>
       </c>
       <c r="D5">
-        <v>0.06517122820055476</v>
+        <v>0.1540442660334378</v>
       </c>
       <c r="E5">
-        <v>0.08698967664106405</v>
+        <v>0.1382849028494633</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.8807889754599501</v>
+        <v>1.206876676197169</v>
       </c>
       <c r="H5">
-        <v>0.8668683050122468</v>
+        <v>0.7099083391585737</v>
       </c>
       <c r="I5">
-        <v>0.6579878026193384</v>
+        <v>0.5894278515543334</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3029619093792988</v>
+        <v>0.7745303746636125</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6505998943505062</v>
+        <v>1.872062028540398</v>
       </c>
       <c r="C6">
-        <v>0.2146749519035041</v>
+        <v>0.7002705371957916</v>
       </c>
       <c r="D6">
-        <v>0.06486847979728338</v>
+        <v>0.1529002538652406</v>
       </c>
       <c r="E6">
-        <v>0.08678076114250288</v>
+        <v>0.1373680071245467</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.8792963277452657</v>
+        <v>1.199981030005205</v>
       </c>
       <c r="H6">
-        <v>0.8664612398067106</v>
+        <v>0.7070877578859722</v>
       </c>
       <c r="I6">
-        <v>0.6577056909213752</v>
+        <v>0.587377359459289</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3013913311597989</v>
+        <v>0.7686941411452537</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6780070088923367</v>
+        <v>1.968582888981757</v>
       </c>
       <c r="C7">
-        <v>0.2250759635089139</v>
+        <v>0.7365838621878424</v>
       </c>
       <c r="D7">
-        <v>0.06697345784145625</v>
+        <v>0.1608628926455964</v>
       </c>
       <c r="E7">
-        <v>0.08823764781488919</v>
+        <v>0.1437665700215653</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.8897276766913365</v>
+        <v>1.248155785789919</v>
       </c>
       <c r="H7">
-        <v>0.86934095816423</v>
+        <v>0.7268348883951035</v>
       </c>
       <c r="I7">
-        <v>0.6597097760293096</v>
+        <v>0.6017704379357838</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3123062476934706</v>
+        <v>0.8093001021209645</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7992777598744283</v>
+        <v>2.39828034558866</v>
       </c>
       <c r="C8">
-        <v>0.2709981745272501</v>
+        <v>0.8986768193881289</v>
       </c>
       <c r="D8">
-        <v>0.0763517754931371</v>
+        <v>0.1966152395607708</v>
       </c>
       <c r="E8">
-        <v>0.09483657477851892</v>
+        <v>0.1729482440136252</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.937525534516169</v>
+        <v>1.4692155013025</v>
       </c>
       <c r="H8">
-        <v>0.8833972807814234</v>
+        <v>0.8185204307578431</v>
       </c>
       <c r="I8">
-        <v>0.6696968894991286</v>
+        <v>0.6695861211923315</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3608072765829817</v>
+        <v>0.9912196266942956</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.038303153122229</v>
+        <v>3.261063262747143</v>
       </c>
       <c r="C9">
-        <v>0.3611767906941168</v>
+        <v>1.226306699560268</v>
       </c>
       <c r="D9">
-        <v>0.09507579579374692</v>
+        <v>0.2697112051556587</v>
       </c>
       <c r="E9">
-        <v>0.1084092019609599</v>
+        <v>0.2346319027418318</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.03776656085202</v>
+        <v>1.941459655385103</v>
       </c>
       <c r="H9">
-        <v>0.9158750345332578</v>
+        <v>1.0185199801534</v>
       </c>
       <c r="I9">
-        <v>0.693462552073143</v>
+        <v>0.8216141316274843</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4571746224770976</v>
+        <v>1.361650759136822</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.214709963447433</v>
+        <v>3.914494749153505</v>
       </c>
       <c r="C10">
-        <v>0.4275501252002982</v>
+        <v>1.476413049199664</v>
       </c>
       <c r="D10">
-        <v>0.1090480186368978</v>
+        <v>0.3260819382046947</v>
       </c>
       <c r="E10">
-        <v>0.1187875089191266</v>
+        <v>0.2838380476736191</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.115541907408584</v>
+        <v>2.321098926568908</v>
       </c>
       <c r="H10">
-        <v>0.9427978532500845</v>
+        <v>1.182005009893885</v>
       </c>
       <c r="I10">
-        <v>0.7135414319435966</v>
+        <v>0.9488220792963773</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5287984694164578</v>
+        <v>1.646406722055886</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.295148138574916</v>
+        <v>4.217893957657566</v>
       </c>
       <c r="C11">
-        <v>0.4577807403847487</v>
+        <v>1.5931359804934</v>
       </c>
       <c r="D11">
-        <v>0.1154540042637109</v>
+        <v>0.3525251871154751</v>
       </c>
       <c r="E11">
-        <v>0.1236017976820136</v>
+        <v>0.3073756017618337</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.151855455529073</v>
+        <v>2.503265031893136</v>
       </c>
       <c r="H11">
-        <v>0.955725084269659</v>
+        <v>1.261073844222977</v>
       </c>
       <c r="I11">
-        <v>0.7232595449898866</v>
+        <v>1.011077529968446</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5615735099464985</v>
+        <v>1.779800106310276</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.325636027449832</v>
+        <v>4.333850861617066</v>
       </c>
       <c r="C12">
-        <v>0.4692342873635766</v>
+        <v>1.637847938973607</v>
       </c>
       <c r="D12">
-        <v>0.1178871689917003</v>
+        <v>0.3626748234707549</v>
       </c>
       <c r="E12">
-        <v>0.1254385993121758</v>
+        <v>0.3164848774189863</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.165743339298928</v>
+        <v>2.573838056117211</v>
       </c>
       <c r="H12">
-        <v>0.9607191846277487</v>
+        <v>1.291798341189207</v>
       </c>
       <c r="I12">
-        <v>0.7270247294713386</v>
+        <v>1.035382142877339</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5740132236234814</v>
+        <v>1.830975967755862</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.3190686764612</v>
+        <v>4.308826874382987</v>
       </c>
       <c r="C13">
-        <v>0.466767291297856</v>
+        <v>1.628194136063939</v>
       </c>
       <c r="D13">
-        <v>0.1173628134311997</v>
+        <v>0.3604824942331391</v>
       </c>
       <c r="E13">
-        <v>0.1250423948814401</v>
+        <v>0.3145137783252636</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.162746213150228</v>
+        <v>2.558564138143936</v>
       </c>
       <c r="H13">
-        <v>0.9596392027553975</v>
+        <v>1.285144580796981</v>
       </c>
       <c r="I13">
-        <v>0.7262100243572718</v>
+        <v>1.030113524012208</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5713328280449161</v>
+        <v>1.819922965136456</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.29765583801742</v>
+        <v>4.227411299966093</v>
       </c>
       <c r="C14">
-        <v>0.4587229098121384</v>
+        <v>1.596803661263493</v>
       </c>
       <c r="D14">
-        <v>0.1156540337389629</v>
+        <v>0.3533573436303641</v>
       </c>
       <c r="E14">
-        <v>0.1237526352219689</v>
+        <v>0.3081209072163134</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.152995265140675</v>
+        <v>2.509037805735829</v>
       </c>
       <c r="H14">
-        <v>0.9561339648821274</v>
+        <v>1.263585208712698</v>
       </c>
       <c r="I14">
-        <v>0.7235675959237113</v>
+        <v>1.013061841655755</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5625963567103724</v>
+        <v>1.783996418315155</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.284543475740804</v>
+        <v>4.177686596112096</v>
       </c>
       <c r="C15">
-        <v>0.4537962745063169</v>
+        <v>1.577645520501164</v>
       </c>
       <c r="D15">
-        <v>0.1146083201458623</v>
+        <v>0.3490113910012411</v>
       </c>
       <c r="E15">
-        <v>0.122964419070378</v>
+        <v>0.3042316049324612</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.147040410237736</v>
+        <v>2.478916018786094</v>
       </c>
       <c r="H15">
-        <v>0.9539998090625375</v>
+        <v>1.25048486322504</v>
       </c>
       <c r="I15">
-        <v>0.7219601549549139</v>
+        <v>1.00271541233802</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5572487525179213</v>
+        <v>1.762080149282113</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.209456992806963</v>
+        <v>3.89480562624567</v>
       </c>
       <c r="C16">
-        <v>0.425575274916639</v>
+        <v>1.468851459249663</v>
       </c>
       <c r="D16">
-        <v>0.1086303923825369</v>
+        <v>0.3243716469618505</v>
       </c>
       <c r="E16">
-        <v>0.1184747871859102</v>
+        <v>0.2823255078248224</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.113187726165705</v>
+        <v>2.30940331393586</v>
       </c>
       <c r="H16">
-        <v>0.9419668008850692</v>
+        <v>1.176941046754109</v>
       </c>
       <c r="I16">
-        <v>0.71291818261858</v>
+        <v>0.9448499729585222</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5266604919701052</v>
+        <v>1.63777564658605</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.163442761324688</v>
+        <v>3.722964124360203</v>
       </c>
       <c r="C17">
-        <v>0.4082724762393468</v>
+        <v>1.402923402953775</v>
       </c>
       <c r="D17">
-        <v>0.1049760441353413</v>
+        <v>0.309474989059666</v>
       </c>
       <c r="E17">
-        <v>0.1157446413582832</v>
+        <v>0.2692023981660085</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.092661008481798</v>
+        <v>2.207990672168989</v>
       </c>
       <c r="H17">
-        <v>0.9347598376499775</v>
+        <v>1.13309938217796</v>
       </c>
       <c r="I17">
-        <v>0.7075216501488626</v>
+        <v>0.9105413466082695</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5079455541640812</v>
+        <v>1.562578790573681</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.136994434124688</v>
+        <v>3.624692035505348</v>
       </c>
       <c r="C18">
-        <v>0.3983238184047764</v>
+        <v>1.365274910745484</v>
       </c>
       <c r="D18">
-        <v>0.102878850779291</v>
+        <v>0.3009806959947383</v>
       </c>
       <c r="E18">
-        <v>0.1141830803094592</v>
+        <v>0.2617608444661954</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.080942262848509</v>
+        <v>2.150536326738489</v>
       </c>
       <c r="H18">
-        <v>0.930678514466365</v>
+        <v>1.108317841025695</v>
       </c>
       <c r="I18">
-        <v>0.7044726193565225</v>
+        <v>0.8912142740923628</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4971993356228523</v>
+        <v>1.519683222452471</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.128042537722479</v>
+        <v>3.591510969323906</v>
       </c>
       <c r="C19">
-        <v>0.3949559508386642</v>
+        <v>1.352571955057329</v>
       </c>
       <c r="D19">
-        <v>0.102169577582444</v>
+        <v>0.2981167638466076</v>
       </c>
       <c r="E19">
-        <v>0.1136558544894015</v>
+        <v>0.2592587055022975</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.076989478731434</v>
+        <v>2.131227167527982</v>
       </c>
       <c r="H19">
-        <v>0.9293075964362458</v>
+        <v>1.09999892735209</v>
       </c>
       <c r="I19">
-        <v>0.7034496662119025</v>
+        <v>0.8847374574505693</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4935639395381912</v>
+        <v>1.505217559316648</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.168339205485154</v>
+        <v>3.741197067210237</v>
       </c>
       <c r="C20">
-        <v>0.4101140273125452</v>
+        <v>1.409912854866491</v>
       </c>
       <c r="D20">
-        <v>0.1053645689795388</v>
+        <v>0.3110529744726165</v>
       </c>
       <c r="E20">
-        <v>0.1160343623439601</v>
+        <v>0.2705881470729068</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.094837019758188</v>
+        <v>2.218694047560945</v>
       </c>
       <c r="H20">
-        <v>0.9355204068186538</v>
+        <v>1.137720650065461</v>
       </c>
       <c r="I20">
-        <v>0.7080904287685001</v>
+        <v>0.9141508312750801</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5099359105376635</v>
+        <v>1.570546078921993</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.303944552647067</v>
+        <v>4.251294513647565</v>
       </c>
       <c r="C21">
-        <v>0.4610855759863171</v>
+        <v>1.606009160432336</v>
       </c>
       <c r="D21">
-        <v>0.1161557426894575</v>
+        <v>0.3554462949734045</v>
       </c>
       <c r="E21">
-        <v>0.1241310933993915</v>
+        <v>0.3099930619311735</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.155855623711886</v>
+        <v>2.523539727074336</v>
       </c>
       <c r="H21">
-        <v>0.9571608471944444</v>
+        <v>1.269895541741477</v>
       </c>
       <c r="I21">
-        <v>0.7243414211763195</v>
+        <v>1.01804966870499</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5651616899913137</v>
+        <v>1.79452999056133</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.392732141102556</v>
+        <v>4.590991222570267</v>
       </c>
       <c r="C22">
-        <v>0.4944329004465544</v>
+        <v>1.737201315135223</v>
       </c>
       <c r="D22">
-        <v>0.1232513633138126</v>
+        <v>0.3852655192958139</v>
       </c>
       <c r="E22">
-        <v>0.1295029940881207</v>
+        <v>0.3369070899051891</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.196532978123599</v>
+        <v>2.732177116519182</v>
       </c>
       <c r="H22">
-        <v>0.9718807359496395</v>
+        <v>1.360903919955462</v>
       </c>
       <c r="I22">
-        <v>0.7354592187850528</v>
+        <v>1.090264127688869</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6014215159532341</v>
+        <v>1.944841199505959</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.345329601055084</v>
+        <v>4.409043503757687</v>
       </c>
       <c r="C23">
-        <v>0.4766314692486731</v>
+        <v>1.666871768906674</v>
       </c>
       <c r="D23">
-        <v>0.1194603076067011</v>
+        <v>0.3692689494461376</v>
       </c>
       <c r="E23">
-        <v>0.1266284559023774</v>
+        <v>0.322425125998322</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.174748829922407</v>
+        <v>2.619878300657774</v>
       </c>
       <c r="H23">
-        <v>0.9639713385763571</v>
+        <v>1.31186831148753</v>
       </c>
       <c r="I23">
-        <v>0.7294795989524516</v>
+        <v>1.05129100847482</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5820534646741038</v>
+        <v>1.864218156291926</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.16612550483427</v>
+        <v>3.732952341611849</v>
       </c>
       <c r="C24">
-        <v>0.4092814653779442</v>
+        <v>1.406752137622561</v>
       </c>
       <c r="D24">
-        <v>0.1051889052604764</v>
+        <v>0.3103393508086612</v>
       </c>
       <c r="E24">
-        <v>0.1159033544813113</v>
+        <v>0.2699613310927518</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.09385298878837</v>
+        <v>2.213852423593067</v>
       </c>
       <c r="H24">
-        <v>0.9351763602876133</v>
+        <v>1.135630063285419</v>
       </c>
       <c r="I24">
-        <v>0.707833117377092</v>
+        <v>0.912517752689169</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.509036029212524</v>
+        <v>1.566943028924086</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9735049618369658</v>
+        <v>3.024803457997052</v>
       </c>
       <c r="C25">
-        <v>0.3367633050684731</v>
+        <v>1.13629887151086</v>
       </c>
       <c r="D25">
-        <v>0.08997349261345278</v>
+        <v>0.2495356913088358</v>
       </c>
       <c r="E25">
-        <v>0.104667600130945</v>
+        <v>0.2173558224606538</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.009935350906687</v>
+        <v>1.808687270416272</v>
       </c>
       <c r="H25">
-        <v>0.9065561335584107</v>
+        <v>0.961845969623738</v>
       </c>
       <c r="I25">
-        <v>0.6865785576080725</v>
+        <v>0.7780730184361957</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4309643537454804</v>
+        <v>1.25956618738806</v>
       </c>
       <c r="N25">
         <v>0</v>
